--- a/data/trans_dic/P56$familiar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3659760158999929</v>
+        <v>0.3659760158999928</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4196359463316149</v>
+        <v>0.419635946331615</v>
       </c>
     </row>
     <row r="5">
@@ -711,7 +711,7 @@
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.1836359874814264</v>
+        <v>0.1764851521389312</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.09888214928100787</v>
+        <v>0.09701222233126011</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.2018854937072492</v>
+        <v>0.2266579493496323</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +741,7 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.8080159728129975</v>
+        <v>0.8168898668937864</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
@@ -749,15 +749,15 @@
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.6634751699753265</v>
+        <v>0.652009263939997</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.6624065803258895</v>
+        <v>0.5115127943180338</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.6244000156176307</v>
+        <v>0.6370456227799259</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         <v>0.205817844034051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3115486194784591</v>
+        <v>0.3115486194784592</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0.2801013263285435</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3445541739004017</v>
+        <v>0.3445541739004018</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1196552465484826</v>
+        <v>0.1122758297068861</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1555970409010344</v>
+        <v>0.1532714835043828</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1890269550683538</v>
+        <v>0.1780478114307032</v>
       </c>
     </row>
     <row r="9">
@@ -853,13 +853,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.6124343096097775</v>
+        <v>0.588850724132016</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8055799538827302</v>
+        <v>0.816491810957595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6162290505698659</v>
+        <v>0.6003705933695092</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
@@ -867,17 +867,17 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6061666930641971</v>
+        <v>0.5922401963057454</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.4751963686593221</v>
+        <v>0.4758157576242986</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6682282100568133</v>
+        <v>0.6387320157037031</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5065456326271487</v>
+        <v>0.4929419666823323</v>
       </c>
     </row>
     <row r="10">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.541627694255354</v>
+        <v>0.5416276942553541</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.231628384074829</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6139674136258373</v>
+        <v>0.6139674136258372</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3373940883858194</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5845106612608795</v>
+        <v>0.5845106612608792</v>
       </c>
     </row>
     <row r="11">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1323464249328403</v>
+        <v>0.1335051969267685</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1365582043471656</v>
+        <v>0.1335897866929233</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.3452875496107928</v>
+        <v>0.3347353917886336</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09948655053047473</v>
+        <v>0.1019898728151069</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.439623919574733</v>
+        <v>0.4369824185600317</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08032298638205145</v>
+        <v>0.09221834033514691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1797406361765189</v>
+        <v>0.1786426144939499</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.4567695897030668</v>
+        <v>0.4605107046333672</v>
       </c>
     </row>
     <row r="12">
@@ -974,34 +974,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.847183183291081</v>
+        <v>0.8460283546560896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8539708941262442</v>
+        <v>0.8561337637381744</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.751010730689029</v>
+        <v>0.7530514657269297</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7336179328956736</v>
+        <v>1</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.701614162817698</v>
+        <v>0.7076688069434358</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.777513952954656</v>
+        <v>0.7645666949000963</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6384854253428457</v>
+        <v>0.6378534251923184</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6534578686483111</v>
+        <v>0.6529477104292266</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.7149875554629443</v>
+        <v>0.7086243012534801</v>
       </c>
     </row>
     <row r="13">
@@ -1049,7 +1049,7 @@
         <v>0.1833884903463941</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5099503695672248</v>
+        <v>0.5099503695672249</v>
       </c>
     </row>
     <row r="14">
@@ -1060,40 +1060,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05609800759337548</v>
+        <v>0.06025721895074555</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.120612889889908</v>
+        <v>0.1247673657307077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09848104247118071</v>
+        <v>0.09865279141477379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4192054966598521</v>
+        <v>0.4203842016720897</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06271260896781042</v>
+        <v>0.06519630259969224</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3323458128385092</v>
+        <v>0.3305389097266744</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05221946396694755</v>
+        <v>0.07170676661977357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1306452666593175</v>
+        <v>0.1262009894506027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08486164315510582</v>
+        <v>0.07995766347629275</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4231210711816238</v>
+        <v>0.4265531520148508</v>
       </c>
     </row>
     <row r="15">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3050390411306561</v>
+        <v>0.3485433366791123</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.378515440006209</v>
+        <v>0.3970365266274253</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3890737535896674</v>
+        <v>0.3941164178252508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6403453637776588</v>
+        <v>0.6384949687623411</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6943670879034407</v>
+        <v>0.559329847465713</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.498738101352434</v>
+        <v>0.515486339842659</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4214315710854998</v>
+        <v>0.4905855503647786</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5990195121870645</v>
+        <v>0.5999523132256043</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2918006667656066</v>
+        <v>0.2945598953399559</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3602985949375215</v>
+        <v>0.3580056818381547</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3345617266160738</v>
+        <v>0.3361637797244802</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5962434857687037</v>
+        <v>0.5920345776801156</v>
       </c>
     </row>
     <row r="16">
@@ -1161,7 +1161,7 @@
         <v>0.2421720409307668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4402858194968634</v>
+        <v>0.4402858194968635</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2599955402061697</v>
@@ -1196,40 +1196,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07870669517605895</v>
+        <v>0.08044331796420075</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1494378998519206</v>
+        <v>0.1747990534395584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1105700592596119</v>
+        <v>0.1061949596708803</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2612056673708569</v>
+        <v>0.2729238709735302</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07114373286591678</v>
+        <v>0.06758805294555435</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2385579254172056</v>
+        <v>0.2406455282804089</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1399567090896453</v>
+        <v>0.1380314337698391</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4876424301941069</v>
+        <v>0.4814963196050423</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1110150782891531</v>
+        <v>0.1088579597557506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2516620176854849</v>
+        <v>0.2571655779161869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1486539733763567</v>
+        <v>0.1495296819310634</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.473206786531173</v>
+        <v>0.4771405692182105</v>
       </c>
     </row>
     <row r="18">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6202478215828582</v>
+        <v>0.6408591236824953</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5992434489609473</v>
+        <v>0.5994832613496012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4326190875250389</v>
+        <v>0.4133953432478755</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6178177285283214</v>
+        <v>0.6117744318442523</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5345826509195997</v>
+        <v>0.5722941845640463</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4843637632829784</v>
+        <v>0.4711669433410249</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4674320334826139</v>
+        <v>0.4481950883766986</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6348829498020173</v>
+        <v>0.6448410218024173</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4564210787955507</v>
+        <v>0.455763512920005</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4689094924118692</v>
+        <v>0.4731854723255163</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3840944665650285</v>
+        <v>0.388346719766178</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6097434684613073</v>
+        <v>0.611930764913277</v>
       </c>
     </row>
     <row r="19">
@@ -1315,7 +1315,7 @@
         <v>0.2986112111880463</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.5961935700229243</v>
+        <v>0.5961935700229242</v>
       </c>
     </row>
     <row r="20">
@@ -1330,28 +1330,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.09008106620445618</v>
+        <v>0.08504812797915072</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1840392412466578</v>
+        <v>0.185323819153344</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1933138384179607</v>
+        <v>0.200477935177106</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5115362048637135</v>
+        <v>0.5217066500295354</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09008106620445618</v>
+        <v>0.08504812797915072</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1840392412466578</v>
+        <v>0.185323819153344</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1933138384179607</v>
+        <v>0.200477935177106</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5234132677337326</v>
+        <v>0.5190186218736346</v>
       </c>
     </row>
     <row r="21">
@@ -1366,28 +1366,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.2969275826704572</v>
+        <v>0.2880222214818336</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3559440305476606</v>
+        <v>0.3585585900508576</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4042574400857177</v>
+        <v>0.4054194980017536</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6564183506693879</v>
+        <v>0.6633390986788728</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2969275826704572</v>
+        <v>0.2880222214818336</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3559440305476606</v>
+        <v>0.3585585900508576</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4042574400857177</v>
+        <v>0.4054194980017536</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6608418074786767</v>
+        <v>0.6612070408830635</v>
       </c>
     </row>
     <row r="22">
@@ -1411,7 +1411,7 @@
         <v>0.1708045041030374</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5051236084568689</v>
+        <v>0.505123608456869</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.181800171669979</v>
@@ -1446,40 +1446,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4264694686222165</v>
+        <v>0.4220325660449415</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2297856043589975</v>
+        <v>0.2364932204379304</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1861432016589402</v>
+        <v>0.1827081724660835</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5078831556670974</v>
+        <v>0.5065468034121463</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.233937538646289</v>
+        <v>0.2339645147995267</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1774165841025142</v>
+        <v>0.1744900992714156</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5022873293801136</v>
+        <v>0.5027607926861931</v>
       </c>
     </row>
     <row r="24">
@@ -1490,40 +1490,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5800652897345765</v>
+        <v>0.5887708935507585</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3648310591908026</v>
+        <v>0.3661469986350552</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3321244903363297</v>
+        <v>0.3440147288688545</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5986490632212006</v>
+        <v>0.5997494047258206</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3449616277082864</v>
+        <v>0.3415064759055972</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2975303388551049</v>
+        <v>0.2908877621302057</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5780199845361912</v>
+        <v>0.581600581771945</v>
       </c>
     </row>
     <row r="25">
@@ -1799,7 +1799,7 @@
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>1086</v>
+        <v>1043</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>2483</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="7">
@@ -1829,7 +1829,7 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4777</v>
+        <v>4829</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
@@ -1837,15 +1837,15 @@
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>4237</v>
+        <v>4164</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>4957</v>
+        <v>3828</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>7679</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="8">
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1070</v>
+        <v>1004</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1506</v>
+        <v>1484</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3520</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="11">
@@ -1985,13 +1985,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4002</v>
+        <v>3848</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3909</v>
+        <v>3962</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5512</v>
+        <v>5370</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -1999,17 +1999,17 @@
         <v>4504</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5867</v>
+        <v>5732</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>4684</v>
+        <v>4690</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6252</v>
+        <v>5976</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>9433</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="12">
@@ -2112,34 +2112,34 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>4920</v>
+        <v>4770</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1047</v>
+        <v>1073</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>9120</v>
+        <v>9065</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>840</v>
+        <v>965</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3166</v>
+        <v>3147</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>15984</v>
+        <v>16115</v>
       </c>
     </row>
     <row r="15">
@@ -2150,34 +2150,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5075</v>
+        <v>5069</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6058</v>
+        <v>6073</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>10701</v>
+        <v>10730</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3281</v>
+        <v>4473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7381</v>
+        <v>7445</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>16129</v>
+        <v>15860</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6680</v>
+        <v>6674</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11511</v>
+        <v>11502</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>25020</v>
+        <v>24797</v>
       </c>
     </row>
     <row r="16">
@@ -2280,40 +2280,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1653</v>
+        <v>1775</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5127</v>
+        <v>5304</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2428</v>
+        <v>2433</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22910</v>
+        <v>22974</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1142</v>
+        <v>1188</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10016</v>
+        <v>9961</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1922</v>
+        <v>2640</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>7933</v>
+        <v>7664</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3948</v>
+        <v>3719</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>35875</v>
+        <v>36166</v>
       </c>
     </row>
     <row r="19">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8986</v>
+        <v>10267</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16091</v>
+        <v>16878</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9594</v>
+        <v>9719</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34995</v>
+        <v>34894</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5106</v>
+        <v>4113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9085</v>
+        <v>9390</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9212</v>
+        <v>10724</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18052</v>
+        <v>18080</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10742</v>
+        <v>10843</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>21879</v>
+        <v>21740</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15563</v>
+        <v>15638</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>50553</v>
+        <v>50196</v>
       </c>
     </row>
     <row r="20">
@@ -2460,40 +2460,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2711</v>
+        <v>3172</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2839</v>
+        <v>2726</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4901</v>
+        <v>5121</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1228</v>
+        <v>1167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>15589</v>
+        <v>15725</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5006</v>
+        <v>4937</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>43820</v>
+        <v>43267</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3054</v>
+        <v>2994</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>21011</v>
+        <v>21470</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>9133</v>
+        <v>9187</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>51401</v>
+        <v>51828</v>
       </c>
     </row>
     <row r="23">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6354</v>
+        <v>6566</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10873</v>
+        <v>10877</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11107</v>
+        <v>10613</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11592</v>
+        <v>11479</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9227</v>
+        <v>9878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31651</v>
+        <v>30788</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16719</v>
+        <v>16031</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>57051</v>
+        <v>57945</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12554</v>
+        <v>12536</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>39149</v>
+        <v>39506</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23599</v>
+        <v>23860</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>66232</v>
+        <v>66470</v>
       </c>
     </row>
     <row r="24">
@@ -2638,28 +2638,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>5399</v>
+        <v>5097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>19068</v>
+        <v>19202</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>18616</v>
+        <v>19306</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>57719</v>
+        <v>58866</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5399</v>
+        <v>5097</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>19068</v>
+        <v>19202</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>18616</v>
+        <v>19306</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>60212</v>
+        <v>59707</v>
       </c>
     </row>
     <row r="27">
@@ -2674,28 +2674,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>17796</v>
+        <v>17263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>36880</v>
+        <v>37151</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>38929</v>
+        <v>39041</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>74066</v>
+        <v>74847</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>17796</v>
+        <v>17263</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>36880</v>
+        <v>37151</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>38929</v>
+        <v>39041</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>76022</v>
+        <v>76064</v>
       </c>
     </row>
     <row r="28">
@@ -2798,40 +2798,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>44661</v>
+        <v>44196</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>46939</v>
+        <v>48310</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>31752</v>
+        <v>31166</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>136945</v>
+        <v>136585</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>66153</v>
+        <v>66160</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>43055</v>
+        <v>42344</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>188037</v>
+        <v>188214</v>
       </c>
     </row>
     <row r="31">
@@ -2842,40 +2842,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>60746</v>
+        <v>61657</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>74526</v>
+        <v>74795</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>56653</v>
+        <v>58681</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>161419</v>
+        <v>161716</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>97548</v>
+        <v>96571</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>72203</v>
+        <v>70591</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>216388</v>
+        <v>217729</v>
       </c>
     </row>
     <row r="32">
